--- a/resultatpourgci.xlsx
+++ b/resultatpourgci.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattc\Git\Mec8211_verification_validation\Final_projet_mec8211\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucka\Documents\École\mec8211\Final_projet_mec8211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079DD62D-CFEC-4095-83CC-3B7FD0A755A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A192E-888B-4D90-82E9-A6DA33DD5B34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00A33AFD-4C72-41CB-86B4-5AE67C4E076A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00A33AFD-4C72-41CB-86B4-5AE67C4E076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>dv</t>
   </si>
@@ -57,10 +57,16 @@
     <t>Solution ( T_final)</t>
   </si>
   <si>
-    <t>GCI</t>
+    <t>p</t>
   </si>
   <si>
-    <t>p_hat</t>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>gci</t>
   </si>
 </sst>
 </file>
@@ -115,8 +121,2309 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Convergence de la température</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> moyenne après 50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t> seconde en fontion de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> la discrétisation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ordre de convergence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$19:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.204119982655925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$19:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99484162729223102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0883665447502329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79028461583484466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2326-4AD2-A2DF-A47FC1F11D2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="659463615"/>
+        <c:axId val="659902527"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Température moyenne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.204119982655925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5051499783199063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$J$18:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51.686795704613402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.661737683586999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.649163795269899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.643250376678999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.639831060605196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2326-4AD2-A2DF-A47FC1F11D2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="657145631"/>
+        <c:axId val="659464031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="659902527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>ordre de convergence approximatif</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.6288877473784365E-2"/>
+              <c:y val="0.2735924851498826"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659463615"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="659463615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>ln(1/dv)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659902527"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="659464031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657145631"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="657145631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="659464031"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Evolution du GCI en fonciton de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> la taille du maillage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GCI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$19:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.204119982655925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$19:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1322526283004137E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5717360396374502E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4321190208155617E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1136-40A2-9CFD-E4316A91CCEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="801667887"/>
+        <c:axId val="749662719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="801667887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ln(1/dv)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749662719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="749662719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>GCI de la température</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="801667887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4993D497-A34F-4D5E-9CC3-43124EECF097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F94166A-FC38-48DE-89BF-F2EC71FCA42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,16 +2719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0524374-FEBB-4EC6-A6E9-2E497850F45F}">
-  <dimension ref="E1:L24"/>
+  <dimension ref="C1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
@@ -519,8 +2823,8 @@
         <v>92.899199999999993</v>
       </c>
       <c r="L8">
-        <f>K7-K8</f>
-        <v>5.6031000000004383E-2</v>
+        <f>LOG((K9-K8)/(K8-K7))/LOG(0.5)</f>
+        <v>1.0262166596877003</v>
       </c>
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.25">
@@ -551,8 +2855,8 @@
         <v>92.871689000000003</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L10" si="5">K8-K9</f>
-        <v>2.7510999999989849E-2</v>
+        <f>LOG((K10-K9)/(K9-K8))/LOG(0.5)</f>
+        <v>3.1156345479819429</v>
       </c>
     </row>
     <row r="10" spans="5:12" x14ac:dyDescent="0.25">
@@ -583,8 +2887,8 @@
         <v>92.868515000000002</v>
       </c>
       <c r="L10">
-        <f t="shared" si="5"/>
-        <v>3.1740000000013424E-3</v>
+        <f>LOG((K11-K10)/(K10-K9))/LOG(0.5)</f>
+        <v>-3.084089992971633</v>
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.25">
@@ -614,32 +2918,219 @@
       <c r="K11">
         <v>92.841599000000002</v>
       </c>
-      <c r="L11">
-        <f>K10-K11</f>
-        <v>2.691599999999994E-2</v>
-      </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f>LN((K9-K8)/(K8-K7))/LN(F9/F8)</f>
-        <v>1.0262166596877003</v>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <f>LN((K10-K9)/(K9-K8))/LN(F10/F9)</f>
-        <v>3.1156345479819429</v>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E18">
+        <f>LOG(1/D18)</f>
+        <v>4.3010299956639813</v>
+      </c>
+      <c r="F18">
+        <f>$F$2*D18/($F$1*0.001043)</f>
+        <v>3.7223052347988263E-2</v>
+      </c>
+      <c r="G18">
+        <f>$F$3/F18</f>
+        <v>1343.2536250000001</v>
+      </c>
+      <c r="H18">
+        <f>ROUND(G18,0)</f>
+        <v>1343</v>
+      </c>
+      <c r="I18">
+        <f>$F$3/H18</f>
+        <v>3.7230081906180192E-2</v>
+      </c>
+      <c r="J18">
+        <v>51.686795704613402</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>D18/2</f>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E22" si="5">LOG(1/D19)</f>
+        <v>4.6020599913279625</v>
+      </c>
+      <c r="F19">
+        <f>$F$2*D19/($F$1*0.001043)</f>
+        <v>1.8611526173994131E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G22" si="6">$F$3/F19</f>
+        <v>2686.5072500000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H22" si="7">ROUND(G19,0)</f>
+        <v>2687</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I22" si="8">$F$3/H19</f>
+        <v>1.8608113137327874E-2</v>
+      </c>
+      <c r="J19">
+        <v>51.661737683586999</v>
+      </c>
+      <c r="K19">
+        <f>LOG((J20-J19)/(J19-J18))/LOG(0.5)</f>
+        <v>0.99484162729223102</v>
+      </c>
+      <c r="L19">
+        <f>IF(ABS(K19-$L$16)/$L$16&lt;=0.1,1.25/(2^$L$16-1)*ABS(J19-J18),3/(2^MIN(MAX(0.5,K19),$L$16)-1)*ABS(J19-J18))</f>
+        <v>3.1322526283004137E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D22" si="9">D19/2</f>
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>4.9030899869919438</v>
+      </c>
+      <c r="F20">
+        <f>$F$2*D20/($F$1*0.001043)</f>
+        <v>9.3057630869970657E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>5373.0145000000002</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>5373</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>9.3057882002605622E-3</v>
+      </c>
+      <c r="J20">
+        <v>51.649163795269899</v>
+      </c>
+      <c r="K20">
+        <f>LOG((J21-J20)/(J20-J19))/LOG(0.5)</f>
+        <v>1.0883665447502329</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L21" si="10">IF(ABS(K20-$L$16)/$L$16&lt;=0.1,1.25/(2^$L$16-1)*ABS(J20-J19),3/(2^MIN(MAX(0.5,K20),$L$16)-1)*ABS(J20-J19))</f>
+        <v>1.5717360396374502E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>5.204119982655925</v>
+      </c>
+      <c r="F21">
+        <f>$F$2*D21/($F$1*0.001043)</f>
+        <v>4.6528815434985328E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>10746.029</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>10746</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>4.6528941001302811E-3</v>
+      </c>
+      <c r="J21">
+        <v>51.643250376678999</v>
+      </c>
+      <c r="K21">
+        <f>LOG((J22-J21)/(J21-J20))/LOG(0.5)</f>
+        <v>0.79028461583484466</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>2.4321190208155617E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>5.5051499783199063</v>
+      </c>
+      <c r="F22">
+        <f>$F$2*D22/($F$1*0.001043)</f>
+        <v>2.3264407717492664E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>21492.058000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>21492</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>2.3264470500651406E-3</v>
+      </c>
+      <c r="J22">
+        <v>51.639831060605196</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>AVERAGE(K19:K21)</f>
+        <v>0.95783092929243618</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
         <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/resultatpourgci.xlsx
+++ b/resultatpourgci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucka\Documents\École\mec8211\Final_projet_mec8211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A192E-888B-4D90-82E9-A6DA33DD5B34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB04E7-CEB8-47EE-B023-020DC9DE4432}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00A33AFD-4C72-41CB-86B4-5AE67C4E076A}"/>
   </bookViews>
@@ -514,6 +514,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="659463615"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -617,6 +618,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="659902527"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -679,6 +681,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="659464031"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2721,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0524374-FEBB-4EC6-A6E9-2E497850F45F}">
   <dimension ref="C1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
